--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -80,6 +80,12 @@
     <t xml:space="preserve">Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
   </si>
   <si>
+    <t xml:space="preserve">u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle LCD cursor (off/profile/template)</t>
+  </si>
+  <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
@@ -90,6 +96,12 @@
   </si>
   <si>
     <t xml:space="preserve">Shows/Hides LCD Readings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shows/Hides Mini Event editor (on recording)</t>
   </si>
   <si>
     <t xml:space="preserve">m</t>
@@ -366,13 +378,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.21"/>
@@ -455,7 +467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -479,7 +491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -519,7 +531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -527,15 +539,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -543,11 +555,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -597,6 +609,22 @@
       </c>
       <c r="B28" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -56,7 +56,35 @@
     <t xml:space="preserve">Autosave</t>
   </si>
   <si>
-    <t xml:space="preserve">CRTL+N</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">COMMAND-N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\u00A0\u00A0\u00A0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Windows: CRTL+N]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Autosave + Reset + START</t>
@@ -83,7 +111,7 @@
     <t xml:space="preserve">u</t>
   </si>
   <si>
-    <t xml:space="preserve">Toggle LCD cursor (off/profile/template)</t>
+    <t xml:space="preserve">Toggle LCD cursor (off/profile/background)</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -128,13 +156,19 @@
     <t xml:space="preserve">Toggle PID mode</t>
   </si>
   <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle Playback Events</t>
+  </si>
+  <si>
     <t xml:space="preserve">h\u00A0\u00A0\u00A0[Windows: CTRL+h]</t>
   </si>
   <si>
     <t xml:space="preserve">Load background profile</t>
   </si>
   <si>
-    <t xml:space="preserve">ALT+h\u00A0\u00A0\u00A0[Windows: CTRL+SHIFT+h]</t>
+    <t xml:space="preserve">OPTION+h\u00A0\u00A0\u00A0[Windows: CTRL+SHIFT+h]</t>
   </si>
   <si>
     <t xml:space="preserve">Remove background profile</t>
@@ -164,7 +198,35 @@
     <t xml:space="preserve">Inc/dec PID lookahead</t>
   </si>
   <si>
-    <t xml:space="preserve">CRTL 0-9</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">COMMAND 0-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\u00A0\u00A0\u00A0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[Windows: CRTL 0-9]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Changes Event Button Palettes</t>
@@ -207,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -236,6 +298,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -378,13 +446,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.21"/>
@@ -435,7 +503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -531,7 +599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -547,7 +615,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -559,15 +627,15 @@
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -587,7 +655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -625,6 +693,14 @@
       </c>
       <c r="B30" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -9,6 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="Keyboard Shortcuts" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Addl Shortcuts" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Menu Shortcuts" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="182">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -50,125 +52,103 @@
     <t xml:space="preserve">Move background or key focus</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Autosave</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">COMMAND-N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\u00A0\u00A0\u00A0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Windows: CRTL+N]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Autosave + Reset + START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t\u00A0\u00A0\u00A0[Windows: CTRL+SHIFT+t]</t>
+    <t xml:space="preserve">⌘-N [Mac]\nCRTL+N [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autosave + RESET + START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T [Mac]\nCTRL+SHIFT+T [Win]</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle mouse cross lines</t>
   </si>
   <si>
-    <t xml:space="preserve">d</t>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle auto axis mode between Roast, BBP+Roast and BBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle xy cursor mode (off/temp/delta)</t>
   </si>
   <si>
-    <t xml:space="preserve">z</t>
+    <t xml:space="preserve">Z</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
   </si>
   <si>
-    <t xml:space="preserve">u</t>
+    <t xml:space="preserve">U</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle LCD cursor (off/profile/background)</t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Shows/Hides Controls</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">Shows/Hides LCD Readings</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Shows/Hides Mini Event editor (on recording)</t>
   </si>
   <si>
-    <t xml:space="preserve">m</t>
+    <t xml:space="preserve">M</t>
   </si>
   <si>
     <t xml:space="preserve">Shows/Hides Event Buttons</t>
   </si>
   <si>
-    <t xml:space="preserve">b</t>
+    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">Shows/Hides Extra Event Buttons</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
+    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve">Shows/Hides Event Sliders</t>
   </si>
   <si>
-    <t xml:space="preserve">p</t>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle PID mode</t>
   </si>
   <si>
-    <t xml:space="preserve">j</t>
+    <t xml:space="preserve">J</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle Playback Events</t>
   </si>
   <si>
-    <t xml:space="preserve">h\u00A0\u00A0\u00A0[Windows: CTRL+h]</t>
+    <t xml:space="preserve">H\nCTRL+H [Win]</t>
   </si>
   <si>
     <t xml:space="preserve">Load background profile</t>
   </si>
   <si>
-    <t xml:space="preserve">OPTION+h\u00A0\u00A0\u00A0[Windows: CTRL+SHIFT+h]</t>
+    <t xml:space="preserve">OPTION+H [Mac]\nCTRL+SHIFT+H [Win]</t>
   </si>
   <si>
     <t xml:space="preserve">Remove background profile</t>
@@ -180,13 +160,10 @@
     <t xml:space="preserve">Toggle foreground curves “show full”</t>
   </si>
   <si>
-    <t xml:space="preserve">o</t>
-  </si>
-  <si>
     <t xml:space="preserve">Toggle background curves “show full”</t>
   </si>
   <si>
-    <t xml:space="preserve">l</t>
+    <t xml:space="preserve">L</t>
   </si>
   <si>
     <t xml:space="preserve">Load alarms</t>
@@ -198,35 +175,7 @@
     <t xml:space="preserve">Inc/dec PID lookahead</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">COMMAND 0-9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\u00A0\u00A0\u00A0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Windows: CRTL 0-9]</t>
-    </r>
+    <t xml:space="preserve">⌘ 0-9 [Mac]\nCRTL 0-9 [Win]</t>
   </si>
   <si>
     <t xml:space="preserve">Changes Event Button Palettes</t>
@@ -244,22 +193,382 @@
     <t xml:space="preserve">Desktop ScreenShot</t>
   </si>
   <si>
-    <t xml:space="preserve">q,w,e,r + &lt;value&gt;</t>
+    <t xml:space="preserve">Q,W,E,R + &lt;value&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the correspoding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less that 100 a leading zero is required, e.g. 'q075'.  </t>
   </si>
   <si>
-    <t xml:space="preserve">v +  &lt;value&gt;</t>
+    <t xml:space="preserve">V +  &lt;value&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Quick PID SV Entry.  Value is a three digit number.  For values less than 100 must be entered with a leading zero, e.g. 'v075'.</t>
   </si>
   <si>
-    <t xml:space="preserve">f\u00A0\u00A0\u00A0[Windows:  CTRL+SHIFT+f]</t>
+    <t xml:space="preserve">F\nCTRL+SHIFT+F [Win]</t>
   </si>
   <si>
     <t xml:space="preserve">Full Screen Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDITIONAL SHORTCUTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key/mouse stroke(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double click on Roast Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the roast in artisan.plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires an artisan.plus account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Background Profile Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle Show/Hide Background Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only when a Background profile is loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right click on BT curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place or re-place events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right click on timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle super mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right click on characteristics line below graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle set of characteristics displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characteristics must be enabled in Config&gt;&gt; Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on plus icon (when not red)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle connect/disconnect to plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on plus icon (when it is red)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sync the roast with artisan.plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘ click on plus icon [Mac]\nCTRL click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When connected to plus, disconnect and clear credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTION click on plus icon [Mac]\nALT click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate email message with Artisan Logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+OPTION click on plus icon [Mac]\nCTRL+ALT click on plus icon [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle debug logging mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle Pause/Continue Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulator speed may be changd while paused.  See next two shortcuts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph/Simulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start or change Simulator speed to 2x mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start or change Simulator speed to 4x mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on LCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide or Show corresponding Curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In  OFF state this changes the Artisan Settings, in ON/START states the change is temporary until OFF state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on label in the Legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only in OFF state when the Legend is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTION click 'RESET' Button [Mac]\nALT click 'RESET' Button [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detach IO Phidgets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle PID Standby on and off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device = Fuji or Delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opens PID dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device = Hottop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle PID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+C [Mac]\nCTRL+C [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roast Properties Data tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+L [Mac]\nCTRL+L [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roast Properties Roast tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open volume calculator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roast Properties Roast Tab\nVolume Calculator Unit, Green Unit  Weight or Roasted Unit Weight field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overwrite with current scale weight (same action as 'unit', 'in', 'out' buttons)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires a connected scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roast Properties Roast tab\nGreen Weight  or Roasted Weight field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overwrite with current scale weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+I [Mac]\nCTRL+I [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adds scale weight to Green Weight field (same action as 'in' button)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+O [Mac]\nCTRL+O [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adds scale weight to Roasted Weight field (same action as 'out' button)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+P [Mac]\nCTRL+P [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear accumulated scale weight preview display (same as clicking on the preview display)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTION click  '+'  button [Mac]\nALT click  '+'  button [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adds Weight Roasted, Volume Roasted, Moisture Roasted, ColorWhole, and Color Ground to the recent roast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTION File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Mac]\nALT File&gt;&gt; New&gt;&gt; &lt;recent-roast&gt; [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets roast properties to &lt;recent-roast&gt; without starting a new roast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTION click 'Copy Table' Button [Mac]\nALT click 'Copy Table' Button [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For various tables this copies the table in tabular form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENU SHORTCUTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+S [Mac]\nCTRL+S [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+X [Mac]\nCTRL+X [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+V [Mac]\nCTRL+V [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+T [Mac]\nCTRL+T [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Roast Properties dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+B [Mac]\nCTRL+B [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Profile Background dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+F4 [Mac]\nCTRL+F4 [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch Profiles (Foreground&lt;=&gt;Background)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+D [Mac]\nCTRL+D [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Devices dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+U [Mac]\nCTRL+U [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Curves dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+E [Mac]\nCTRL+E [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Events dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+A [Mac]\nCTRL+A [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Alarms dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+SHIFT+A [Mac]\nCTRL+SHIFT+A [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Axes dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+K [Mac]\nCTRL+K [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyzer Auto All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+OPTION+A [Mac]\nCTRL+OPTION+A [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyzer Clear Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show/Hide Large Main LCDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘+F [Mac]\nCTRL+SHIFT+F [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle Full Screen Mode \u00A0\u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 \u00A0\u00A0\u00A0\u00A0\u00A0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open QuickStart Guide in the system browser</t>
   </si>
 </sst>
 </file>
@@ -269,7 +578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -294,16 +603,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -323,7 +625,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -347,17 +649,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -369,75 +671,28 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0070C0"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -446,16 +701,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -472,23 +727,23 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -496,15 +751,15 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -512,31 +767,31 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -544,7 +799,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -552,15 +807,15 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -568,7 +823,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -576,7 +831,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -584,7 +839,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -592,15 +847,15 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -608,7 +863,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -616,91 +871,99 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -712,4 +975,668 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="72.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="45.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="4" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.58"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Keyboard Shortcuts" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="208">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -37,6 +37,58 @@
   </si>
   <si>
     <t xml:space="preserve">Turns ON/OFF Keyboard Shortcuts</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">⌘-</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ENTER [Mac]\nCTRL+ENTER [Win]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts recording</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SHIFT-</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ENTER</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Turns Artisan OFF</t>
   </si>
   <si>
     <t xml:space="preserve">SPACE</t>
@@ -46,10 +98,16 @@
 When Keyboard Shortcuts are OFF adds a custom event</t>
   </si>
   <si>
+    <t xml:space="preserve">LEFT,RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change roast event key focus</t>
+  </si>
+  <si>
     <t xml:space="preserve">LEFT,RIGHT,UP,DOWN</t>
   </si>
   <si>
-    <t xml:space="preserve">Move background or key focus</t>
+    <t xml:space="preserve">Move background (when sliders not visible or when Config&gt;&gt; Events&gt;&gt; Sliders tab&gt;&gt; Keyboard Control is not selected)</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -202,7 +260,7 @@
     <t xml:space="preserve">Q,W,E,R + &lt;value&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the correspoding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less that 100 a leading zero is required, e.g. 'q075'.  </t>
+    <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the correspoding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less than 100 a leading zero is required, e.g. 'q075'.  </t>
   </si>
   <si>
     <t xml:space="preserve">V +  &lt;value&gt;</t>
@@ -250,7 +308,10 @@
     <t xml:space="preserve">Requires an artisan.plus account</t>
   </si>
   <si>
-    <t xml:space="preserve">Click on Background Profile Title</t>
+    <t xml:space="preserve">Double Click on Background Profile Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph &amp; Designer</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle Show/Hide Background Profile</t>
@@ -310,6 +371,98 @@
     <t xml:space="preserve">Toggle debug logging mode</t>
   </si>
   <si>
+    <t xml:space="preserve">Click on LCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide or Show corresponding Curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In  OFF state this changes the Artisan Settings, in ON/START states the change is temporary until OFF state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on label in the Legend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only in OFF state when the Legend is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTION click 'RESET' Button [Mac]\nALT click 'RESET' Button [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detach IO Phidgets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle PID Standby on and off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device = Fuji or Delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opens PID dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device = Hottop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle PID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph when Sliders visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence slider select</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires Keyboard Control enabled in Config&gt;&gt; Events
+Keyboard Shortcuts must be turned off (ENTER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP,DOWN,RIGHT,LEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment selected slider up or down by step amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTION+UP, OPTION+DOWN [Mac]\nPAGEUP,PAGEDOWN [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increment selected slider up or down by 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME,END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set selected slider to minimum or maximum value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires Keyboard Control enabled in Config&gt;&gt; Events
+Keyboard Shortcuts must be disabled (ENTER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph/Simulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start or change Simulator speed to 2x mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start or change Simulator speed to 4x mode</t>
+  </si>
+  <si>
     <t xml:space="preserve">Click on timer</t>
   </si>
   <si>
@@ -320,63 +473,6 @@
   </si>
   <si>
     <t xml:space="preserve">Simulator speed may be changd while paused.  See next two shortcuts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph/Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 2x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 4x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on LCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hide or Show corresponding Curve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In  OFF state this changes the Artisan Settings, in ON/START states the change is temporary until OFF state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on label in the Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only in OFF state when the Legend is displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION click 'RESET' Button [Mac]\nALT click 'RESET' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detach IO Phidgets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ click 'Control' Button [Mac]\nCTRL click 'Control' Button [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID Standby on and off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = Fuji or Delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opens PID dialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = Hottop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle PID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
   </si>
   <si>
     <t xml:space="preserve">⌘+C [Mac]\nCTRL+C [Win]</t>
@@ -602,7 +698,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -632,6 +728,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -693,7 +796,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -702,12 +805,16 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -718,10 +825,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -730,7 +833,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -752,10 +863,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A3:A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -777,260 +888,284 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1049,413 +1184,469 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="1" sqref="A3:A21 D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="72.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="45.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="5" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="72.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="45.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="6" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>66</v>
+      <c r="A1" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>70</v>
+      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>74</v>
+      <c r="A3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>77</v>
+      <c r="A4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>79</v>
+      <c r="C5" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>81</v>
+      <c r="A6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>84</v>
+      <c r="A7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>86</v>
+      <c r="A8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>88</v>
+      <c r="A9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>90</v>
+      <c r="A10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>92</v>
+      <c r="A11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>94</v>
+      <c r="A12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>98</v>
+      <c r="A13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>101</v>
+      <c r="A14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>103</v>
+      <c r="A15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>106</v>
+      <c r="A16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>108</v>
+      <c r="A17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="5" t="s">
+    <row r="19" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="D19" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="5" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>120</v>
       </c>
+      <c r="B20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>123</v>
+      <c r="A23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>127</v>
+      <c r="A24" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>127</v>
+      <c r="A25" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>127</v>
+      <c r="A26" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>127</v>
+      <c r="A27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>127</v>
+      <c r="A28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>137</v>
+      <c r="A29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>139</v>
+      <c r="A30" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>142</v>
+      <c r="C31" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>146</v>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1476,8 +1667,8 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1489,7 +1680,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,219 +1688,219 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="6" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="C12" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="B13" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Keyboard Shortcuts" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="190">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -37,58 +37,6 @@
   </si>
   <si>
     <t xml:space="preserve">Turns ON/OFF Keyboard Shortcuts</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">⌘-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ENTER [Mac]\nCTRL+ENTER [Win]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Starts recording</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SHIFT-</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ENTER</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Turns Artisan OFF</t>
   </si>
   <si>
     <t xml:space="preserve">SPACE</t>
@@ -98,16 +46,10 @@
 When Keyboard Shortcuts are OFF adds a custom event</t>
   </si>
   <si>
-    <t xml:space="preserve">LEFT,RIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change roast event key focus</t>
-  </si>
-  <si>
     <t xml:space="preserve">LEFT,RIGHT,UP,DOWN</t>
   </si>
   <si>
-    <t xml:space="preserve">Move background (when sliders not visible or when Config&gt;&gt; Events&gt;&gt; Sliders tab&gt;&gt; Keyboard Control is not selected)</t>
+    <t xml:space="preserve">Move background or key focus</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -260,7 +202,7 @@
     <t xml:space="preserve">Q,W,E,R + &lt;value&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the correspoding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less than 100 a leading zero is required, e.g. 'q075'.  </t>
+    <t xml:space="preserve">Quick Special Event Entry.  The keys q,w,e, and r correspond to special events 1,2,3 and 4.  A two digit numeric value must follow the shortcut letter, e.g. 'q75', when the correspoding event slider max value is 100 or less (default setting).   When the slider max value is greater than 100, three digits must be entered and for values less that 100 a leading zero is required, e.g. 'q075'.  </t>
   </si>
   <si>
     <t xml:space="preserve">V +  &lt;value&gt;</t>
@@ -308,10 +250,7 @@
     <t xml:space="preserve">Requires an artisan.plus account</t>
   </si>
   <si>
-    <t xml:space="preserve">Double Click on Background Profile Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph &amp; Designer</t>
+    <t xml:space="preserve">Click on Background Profile Title</t>
   </si>
   <si>
     <t xml:space="preserve">Toggle Show/Hide Background Profile</t>
@@ -371,6 +310,33 @@
     <t xml:space="preserve">Toggle debug logging mode</t>
   </si>
   <si>
+    <t xml:space="preserve">Click on timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle Pause/Continue Simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulator speed may be changd while paused.  See next two shortcuts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph/Simulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start or change Simulator speed to 2x mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start or change Simulator speed to 4x mode</t>
+  </si>
+  <si>
     <t xml:space="preserve">Click on LCD</t>
   </si>
   <si>
@@ -411,68 +377,6 @@
   </si>
   <si>
     <t xml:space="preserve">Device = &lt;all others&gt;, Control enabled in Config&gt;&gt; Device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph when Sliders visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence slider select</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires Keyboard Control enabled in Config&gt;&gt; Events
-Keyboard Shortcuts must be turned off (ENTER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP,DOWN,RIGHT,LEFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment selected slider up or down by step amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION+UP, OPTION+DOWN [Mac]\nPAGEUP,PAGEDOWN [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increment selected slider up or down by 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOME,END</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set selected slider to minimum or maximum value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires Keyboard Control enabled in Config&gt;&gt; Events
-Keyboard Shortcuts must be disabled (ENTER)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTION Tools&gt;&gt;Simulator [Mac]\nALT Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph/Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 2x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⌘ Tools&gt;&gt;Simulator [Mac]\nCTRL Tools&gt;&gt;Simulator [Win]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start or change Simulator speed to 4x mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Pause/Continue Simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simulator speed may be changd while paused.  See next two shortcuts.</t>
   </si>
   <si>
     <t xml:space="preserve">⌘+C [Mac]\nCTRL+C [Win]</t>
@@ -698,7 +602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -728,13 +632,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -796,7 +693,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,16 +702,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -825,6 +718,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -833,15 +730,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -863,10 +752,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -888,284 +777,260 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1184,469 +1049,413 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D32" activeCellId="1" sqref="A3:A21 D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="72.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="45.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="6" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="72.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="45.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="5" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="B6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="6" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="B11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="B12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="6" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="6" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="B16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="6" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="7" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="C22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="D24" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="D25" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="6" t="s">
+      <c r="B26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="D26" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D27" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="B28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="D28" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="6" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="B30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="6" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1667,8 +1476,8 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1680,7 +1489,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,219 +1497,219 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="11" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B13" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="11" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B15" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="11" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave\Documents\GitHub\artisan\doc\help_dialogs\Input_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4C4F1-29EB-4FF6-9632-7346689B02BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyboard Shortcuts" sheetId="1" r:id="rId1"/>
     <sheet name="Addl Shortcuts" sheetId="2" r:id="rId2"/>
     <sheet name="Menu Shortcuts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="219">
   <si>
     <t>KEYBOARD SHORTCUTS</t>
   </si>
@@ -51,10 +57,6 @@
   </si>
   <si>
     <t>SPACE</t>
-  </si>
-  <si>
-    <t>When Keyboard Shortcuts are ON chooses the current button
-When Keyboard Shortcuts are OFF adds a custom event</t>
   </si>
   <si>
     <t>LEFT,RIGHT</t>
@@ -660,12 +662,38 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>When Keyboard Shortcuts are ON chooses the current button
+When Keyboard Shortcuts are OFF adds a custom event
+When Meter=NONE opens dialog to manually enter temperatures during roast</t>
+  </si>
+  <si>
+    <t>When starting Artisan</t>
+  </si>
+  <si>
+    <t>Skip Settings Load</t>
+  </si>
+  <si>
+    <t>Hold Shift+Option [Mac]\nHold Shift+Alt [Win]</t>
+  </si>
+  <si>
+    <t>Skip Settings Save</t>
+  </si>
+  <si>
+    <t>When opening a profile (.alog file)</t>
+  </si>
+  <si>
+    <t>Skip creating settings cache and ask user to apply existing settings or settings from profile</t>
+  </si>
+  <si>
+    <t>When quitting Artisan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -732,11 +760,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -753,7 +778,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -761,14 +786,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -806,7 +834,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -878,7 +906,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1051,11 +1079,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,260 +1129,260 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>51</v>
+        <v>210</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1364,484 +1392,517 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMJ40"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="72" style="5" customWidth="1"/>
-    <col min="4" max="4" width="74.7109375" style="5" customWidth="1"/>
-    <col min="5" max="1024" width="9.140625" style="5"/>
+    <col min="1" max="1" width="53" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="72" style="4" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" style="4" customWidth="1"/>
+    <col min="5" max="1024" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="8" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="8" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="5" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="5" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="5" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="5" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="5" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="5" t="s">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="5" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>167</v>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
@@ -1867,7 +1928,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1875,219 +1936,219 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="10" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="10" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="10" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="10" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
+++ b/doc/help_dialogs/Input_files/keyboardshortcuts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">KEYBOARD SHORTCUTS</t>
   </si>
@@ -56,35 +56,7 @@
     <t xml:space="preserve">Autosave</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">COMMAND-N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\u00A0\u00A0\u00A0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Windows: CRTL+N]</t>
-    </r>
+    <t xml:space="preserve">CRTL+N</t>
   </si>
   <si>
     <t xml:space="preserve">Autosave + Reset + START</t>
@@ -99,19 +71,7 @@
     <t xml:space="preserve">d</t>
   </si>
   <si>
-    <t xml:space="preserve">Toggle xy cursor mode (off/temp/delta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle xy cursor clamp mode (off/BT/ET/BTB/ETB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle LCD cursor (off/profile/background)</t>
+    <t xml:space="preserve">Toggle xy scale (T/Delta)</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
@@ -126,12 +86,6 @@
     <t xml:space="preserve">Shows/Hides LCD Readings</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows/Hides Mini Event editor (on recording)</t>
-  </si>
-  <si>
     <t xml:space="preserve">m</t>
   </si>
   <si>
@@ -156,19 +110,13 @@
     <t xml:space="preserve">Toggle PID mode</t>
   </si>
   <si>
-    <t xml:space="preserve">j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle Playback Events</t>
-  </si>
-  <si>
     <t xml:space="preserve">h\u00A0\u00A0\u00A0[Windows: CTRL+h]</t>
   </si>
   <si>
     <t xml:space="preserve">Load background profile</t>
   </si>
   <si>
-    <t xml:space="preserve">OPTION+h\u00A0\u00A0\u00A0[Windows: CTRL+SHIFT+h]</t>
+    <t xml:space="preserve">ALT+h\u00A0\u00A0\u00A0[Windows: CTRL+SHIFT+h]</t>
   </si>
   <si>
     <t xml:space="preserve">Remove background profile</t>
@@ -198,35 +146,7 @@
     <t xml:space="preserve">Inc/dec PID lookahead</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">COMMAND 0-9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\u00A0\u00A0\u00A0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[Windows: CRTL 0-9]</t>
-    </r>
+    <t xml:space="preserve">CRTL 0-9</t>
   </si>
   <si>
     <t xml:space="preserve">Changes Event Button Palettes</t>
@@ -301,7 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -365,7 +285,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -442,19 +362,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.21"/>
   </cols>
   <sheetData>
@@ -503,7 +423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -527,7 +447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -535,7 +455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -559,7 +479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -591,7 +511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -603,7 +523,7 @@
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -623,7 +543,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -631,11 +551,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -655,7 +575,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -671,42 +591,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
